--- a/2020/September/Others/New folder/Active RT List of Mugdho Corporation (2).xlsx
+++ b/2020/September/Others/New folder/Active RT List of Mugdho Corporation (2).xlsx
@@ -1958,7 +1958,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J260" sqref="J260"/>
+      <selection pane="bottomRight" activeCell="I246" sqref="I246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
